--- a/biology/Zoologie/Ephippidae/Ephippidae.xlsx
+++ b/biology/Zoologie/Ephippidae/Ephippidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ephippidae sont une famille de poissons de l'ordre des Perciformes.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des gros poissons très aplatis latéralement et élevés verticalement, que l'on trouve dans les eaux marines (rarement saumâtres) des océans Atlantique, Indien et Pacifique, principalement dans la zone intertropicale. Leur nageoire anale porte 3 épines, leur bouche est petite[2].
-Ce sont des poissons relativement omnivores, qui se nourrissent principalement d'algues et de petits invertébrés (notamment planctoniques). Leur reproduction semble pélagique[2].
-Plusieurs espèces sont élevées en aquarium, où ils se révèlent d'un entretien relativement facile malgré leur croissance rapide et importante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des gros poissons très aplatis latéralement et élevés verticalement, que l'on trouve dans les eaux marines (rarement saumâtres) des océans Atlantique, Indien et Pacifique, principalement dans la zone intertropicale. Leur nageoire anale porte 3 épines, leur bouche est petite.
+Ce sont des poissons relativement omnivores, qui se nourrissent principalement d'algues et de petits invertébrés (notamment planctoniques). Leur reproduction semble pélagique.
+Plusieurs espèces sont élevées en aquarium, où ils se révèlent d'un entretien relativement facile malgré leur croissance rapide et importante.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (4 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (4 juin 2014) :
 genre Chaetodipterus Lacepède, 1802
 Chaetodipterus faber
 Chaetodipterus lippei Steindachner, 1895
